--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/2M3U3I3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_16Channel/2M3U3I3I3I.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE048F2B-E419-4F64-913C-2A79F46873C0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCF490B-EC0B-4AA7-9F0D-3D42121E237C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -730,7 +730,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -766,8 +766,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AB23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1579,7 +1579,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
